--- a/src/assets/DB/imagenes.xlsx
+++ b/src/assets/DB/imagenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\develop\clientes\hbenelli\hbenelliapp\src\assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6370A56-9040-4BD4-BB5B-C9C132FC8CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A4988-1037-4342-A8CC-BCC2A32D2808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2969,11 +2969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2996,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>HILO 8/1 CELESTE R EN CONO</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>HILO CRUDO Nº 11 BOBINA</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>HILO CRUDO Nº 22 BOBINA</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>HILO 4/3 ALGODON CRUDO EN CONO</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>HILO PARA ENCAÑAR</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>HILO CRUDO Nº 4 OVILLO</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>HILO PABILO Nº 1 X 3 CABOS EN CONO</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>HILO PIOLIN Nº 27 X 100 G</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>HILO 8/1 FRANCIA R EN CONO</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>HILO MORTADELA BOCHA PULIDO MARRON 22</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>HILO YUTE OVILLO 100 G</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4481,79 +4480,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="HILO 14/1 CRUDO EN CONO"/>
-        <filter val="HILO 14/2 CRUDO EN CONO"/>
-        <filter val="HILO 24/2 WATER ALGODON EN CONO"/>
-        <filter val="HILO 4/3 ALGODON CRUDO EN CONO"/>
-        <filter val="HILO 4/3 AMARILLO PULIDO EN CONO"/>
-        <filter val="HILO 4/6 ALGODON CRUDO EN CONO"/>
-        <filter val="HILO 7/1 CRUDO EN CONO"/>
-        <filter val="HILO 7/2 CRUDO EN CONO"/>
-        <filter val="HILO 7/2 VERDE PULIDO EN CONO"/>
-        <filter val="HILO 7/3 CRUDO EN CONO"/>
-        <filter val="HILO 7/3 VERDE PULIDO EN CONO"/>
-        <filter val="HILO 8/1 AMARILLO R EN CONO"/>
-        <filter val="HILO 8/1 AZUL R EN CONO"/>
-        <filter val="HILO 8/1 BLANCO R EN CONO"/>
-        <filter val="HILO 8/1 BORDO R EN CONO"/>
-        <filter val="HILO 8/1 CELESTE R EN CONO"/>
-        <filter val="HILO 8/1 CRUDO EN CONO"/>
-        <filter val="HILO 8/1 FRANCIA R EN CONO"/>
-        <filter val="HILO 8/1 NARANJA R EN CONO"/>
-        <filter val="HILO 8/1 NEGRO R EN CONO"/>
-        <filter val="HILO 8/1 ROSA R EN CONO"/>
-        <filter val="HILO 8/1 VERDE CLARO R EN CONO"/>
-        <filter val="HILO COLOR BLANCO OVILLO 50 G"/>
-        <filter val="HILO COLOR CELESTE OVILLO 50 G"/>
-        <filter val="HILO COLOR FRANCIA OVILLO 50 G"/>
-        <filter val="HILO COLOR GRIS TOPO OVILLO 50 G"/>
-        <filter val="HILO COLOR ROSA OVILLO 50 G"/>
-        <filter val="HILO COLOR VERDE CLARO OVILLO 50 G"/>
-        <filter val="HILO CRUDO Nº 11 BOBINA"/>
-        <filter val="HILO CRUDO Nº 15 BOBINA"/>
-        <filter val="HILO CRUDO Nº 22 BOBINA"/>
-        <filter val="HILO CRUDO Nº 27 BOBINA"/>
-        <filter val="HILO CRUDO Nº 3 BOBINA"/>
-        <filter val="HILO CRUDO Nº 3 OVILLO"/>
-        <filter val="HILO CRUDO Nº 4 BOBINA"/>
-        <filter val="HILO CRUDO Nº 4 OVILLO"/>
-        <filter val="HILO CRUDO Nº 5 BOBINA"/>
-        <filter val="HILO CRUDO Nº 8 BOBINA"/>
-        <filter val="HILO CRUDO PIOLIN Nº 24 X 50 G"/>
-        <filter val="HILO MAQ. ATA. POLIESTER BOBINA 80g"/>
-        <filter val="HILO MAQ. ATA. S/NÚCLEO BOBINA 120 g"/>
-        <filter val="HILO MORTADELA BOCHA PULIDO MARRON 22"/>
-        <filter val="HILO PABILO Nº 1 X 3 CABOS EN CONO"/>
-        <filter val="HILO PARA ENCAÑAR"/>
-        <filter val="HILO PIOLIN Nº 27"/>
-        <filter val="HILO PIOLIN Nº 27 X 100 G"/>
-        <filter val="HILO POLIESTER CONITO"/>
-        <filter val="HILO POLIESTER CONO"/>
-        <filter val="HILO PULIDO AMARILLO Nº 3 BOBINA"/>
-        <filter val="HILO PULIDO AMARILLO Nº 3 OVILLO"/>
-        <filter val="HILO PULIDO AMARILLO Nº 6 BOBINA"/>
-        <filter val="HILO PULIDO AMARILLO Nº 9 BOBINA"/>
-        <filter val="HILO PULIDO AMARILLO Y ROJO Nº 3"/>
-        <filter val="HILO PULIDO AMARILLO Y VERDE Nº 3"/>
-        <filter val="HILO PULIDO AMARILLO, ROJO Y NEGRO Nº 3"/>
-        <filter val="HILO PULIDO BLANCO Y AZUL Nº 3"/>
-        <filter val="HILO PULIDO BLANCO Y ROJO Nº 3"/>
-        <filter val="HILO PULIDO BLANCO, ROJO Y VERDE Nº 3"/>
-        <filter val="HILO PULIDO FULL AMARILLO Nº 3 BOBINA"/>
-        <filter val="HILO PULIDO FULL AMARILLO Y ROJO Nº 3"/>
-        <filter val="HILO PULIDO FULL BLANCO Y ROJO Nº 3"/>
-        <filter val="HILO PULIDO NARANJA Nº 3 BOBINA"/>
-        <filter val="HILO PULIDO SUPER AMARILLO Nº 3"/>
-        <filter val="HILO PULIDO SUPER AMARILLO Nº 6"/>
-        <filter val="HILO PULIDO SUPER AMARILLO Nº 9"/>
-        <filter val="HILO SISAL OVILLO 80 G"/>
-        <filter val="HILO YUTE OVILLO 100 G"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/DB/imagenes.xlsx
+++ b/src/assets/DB/imagenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\develop\clientes\hbenelli\hbenelliapp\src\assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A4988-1037-4342-A8CC-BCC2A32D2808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD70DBB-BAA2-4496-97C0-6B765D340217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13410" yWindow="3330" windowWidth="14370" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2972,7 +2972,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
